--- a/output/fit_clients/fit_round_338.xlsx
+++ b/output/fit_clients/fit_round_338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1806182397.831786</v>
+        <v>2220596979.815374</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09844271089376694</v>
+        <v>0.1051296111023567</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03742815366750547</v>
+        <v>0.04437887475340059</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>903091168.5430752</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1717461500.468762</v>
+        <v>2188928379.175189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1544703193986173</v>
+        <v>0.1566285366429354</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04309548110500097</v>
+        <v>0.03620970405266407</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>858730746.5397425</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3229914194.242087</v>
+        <v>3847138908.544915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1275859415730703</v>
+        <v>0.1215060354319864</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02621604962191347</v>
+        <v>0.03810589658813404</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>122</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1614957056.761647</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2770203170.024965</v>
+        <v>2712754373.776764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07699198123456275</v>
+        <v>0.08015486090411793</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04180900359898561</v>
+        <v>0.03842321823169616</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>125</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1385101670.078923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1762697587.998127</v>
+        <v>1954431696.082371</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1368448211751312</v>
+        <v>0.117662842276627</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03559358380611539</v>
+        <v>0.03884447825753188</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>881348849.2829208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2101906962.247687</v>
+        <v>3051966321.410235</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07469542314029223</v>
+        <v>0.08061103906598462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04458483592823998</v>
+        <v>0.04275891700834548</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1050953532.485166</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2395329531.53362</v>
+        <v>3634696107.811263</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1928259633018654</v>
+        <v>0.1990052190845263</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02634423947512133</v>
+        <v>0.02849140251082705</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>108</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1197664761.474174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1701738144.391135</v>
+        <v>1870060978.540725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1222446374575379</v>
+        <v>0.1593672271416814</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03135146992407045</v>
+        <v>0.03022669376936488</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>850869140.197454</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4168207853.986217</v>
+        <v>4332099381.026854</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2121215302119283</v>
+        <v>0.208859852564939</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03350334556982226</v>
+        <v>0.03519450186996759</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>142</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2084103961.895947</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4182613947.484497</v>
+        <v>3827798803.20291</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1720478469852134</v>
+        <v>0.1734720711109831</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03626922150970802</v>
+        <v>0.04120013214642436</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>140</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2091306999.141168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2671754037.480358</v>
+        <v>2173140266.804563</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1223328368548722</v>
+        <v>0.1610012056033329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04420957319932061</v>
+        <v>0.04771131171669508</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>115</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1335877006.712136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3310424240.238556</v>
+        <v>3881676354.301365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08281104698257988</v>
+        <v>0.08486232030694034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02398851947351408</v>
+        <v>0.02244376644451909</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>114</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1655212210.082274</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2469415685.420575</v>
+        <v>3615301903.381954</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1407345903050412</v>
+        <v>0.1810743582858181</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03951929585994706</v>
+        <v>0.03870153715232597</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1234707915.582226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1802812085.124201</v>
+        <v>1587946675.686969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1085909054623687</v>
+        <v>0.09301856393877464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04093328999757118</v>
+        <v>0.0335951553691617</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>901406196.7296499</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1987857367.644621</v>
+        <v>2358312974.26925</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1112805404355978</v>
+        <v>0.1141260082357095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03316307753434827</v>
+        <v>0.04324322134125773</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>993928760.39727</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4027612318.097775</v>
+        <v>3582605285.741264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.143621761476981</v>
+        <v>0.1320391825138222</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03672326566232584</v>
+        <v>0.04704180381649194</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>99</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2013806192.299284</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3982843349.698937</v>
+        <v>3792823490.789148</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1782030082913413</v>
+        <v>0.1177606479411622</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02964082033364518</v>
+        <v>0.03014682224790068</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>111</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1991421634.004729</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1100941225.489351</v>
+        <v>1277888999.387529</v>
       </c>
       <c r="F19" t="n">
-        <v>0.134944603982345</v>
+        <v>0.1297284704668102</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01852171862276285</v>
+        <v>0.02312688157914843</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>550470666.5620118</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2341247795.18358</v>
+        <v>2502537265.528409</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09938345992362033</v>
+        <v>0.1009084996568339</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02739743064370807</v>
+        <v>0.0203780885384859</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1170623887.581516</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2050390801.260265</v>
+        <v>2559956034.398856</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06539860223871942</v>
+        <v>0.07615821228552358</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03201488337817045</v>
+        <v>0.03110359017849922</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1025195431.743903</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2767683601.929864</v>
+        <v>3679717158.670142</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1265795607654932</v>
+        <v>0.127902355805678</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05611286053720308</v>
+        <v>0.05429019303481784</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1383841876.411428</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1258109259.593031</v>
+        <v>1520480561.531786</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1118081993545225</v>
+        <v>0.1245930631130843</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03666292813044557</v>
+        <v>0.03336107747020349</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>629054656.5040163</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3774257108.51405</v>
+        <v>3091746182.91261</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09643599592822172</v>
+        <v>0.1033776189989549</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03280876536725868</v>
+        <v>0.03710468362597358</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1887128537.433258</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>892717588.6412908</v>
+        <v>1113035595.602337</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1198252051700398</v>
+        <v>0.09326806652685334</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02532211930203014</v>
+        <v>0.02845155708428468</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>446358882.9909818</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1074054912.06401</v>
+        <v>1116998072.627776</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08758614201260424</v>
+        <v>0.1185192499681065</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03842113353765692</v>
+        <v>0.0390865941901449</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>537027446.2182326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3576926188.907277</v>
+        <v>4436373655.448817</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1129674522221238</v>
+        <v>0.0988892052089866</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01721812758981607</v>
+        <v>0.02556937666748254</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1788463125.614045</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3062221507.409713</v>
+        <v>3468682309.592283</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1375735502799575</v>
+        <v>0.1431966587412045</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03769113947657782</v>
+        <v>0.04859162107527384</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>108</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1531110770.321797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5362643029.32603</v>
+        <v>4844945934.7581</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1185234494446176</v>
+        <v>0.1037144178900605</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04146303896891679</v>
+        <v>0.0457958568474974</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>149</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2681321437.084733</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2194003159.528233</v>
+        <v>2183738525.074276</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08733082376308125</v>
+        <v>0.123432456994678</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03223902904972238</v>
+        <v>0.03368802738683108</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1097001639.325711</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1290626802.042586</v>
+        <v>1334335390.565821</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07848907688385137</v>
+        <v>0.09469129916108582</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03597155534545421</v>
+        <v>0.05225375363570713</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>645313331.1502397</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1879239688.92625</v>
+        <v>1256143168.160642</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1044405114593486</v>
+        <v>0.09737849222834249</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02762467076493291</v>
+        <v>0.03260161285685052</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>939619991.3648031</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2696684982.090883</v>
+        <v>2552921313.895901</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1398278967217273</v>
+        <v>0.1994749864135733</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04628520103368188</v>
+        <v>0.05336507262939151</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1348342512.502096</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1275656093.119255</v>
+        <v>1491472134.652692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09629591482278976</v>
+        <v>0.1180748807217746</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01963497174396826</v>
+        <v>0.02746009673579817</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>637828039.2176198</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>826677706.6183687</v>
+        <v>1223304701.329254</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1123350000855799</v>
+        <v>0.09226404259183232</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03363094282763721</v>
+        <v>0.03182344563225643</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>413338909.8983972</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2336263493.828207</v>
+        <v>2936112098.544224</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1266227229594921</v>
+        <v>0.1215013761942685</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02802734146752263</v>
+        <v>0.02666663663300565</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>85</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1168131782.034958</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2630711977.965786</v>
+        <v>1912717380.418938</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09439549978785224</v>
+        <v>0.0796812117223913</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02601601713344074</v>
+        <v>0.03179573420437756</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>90</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1315356103.036137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1720498591.118289</v>
+        <v>2141729739.390422</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1173318939907332</v>
+        <v>0.09821891005089216</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02477687574934374</v>
+        <v>0.03859365840051533</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>860249313.6730222</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1830960942.522206</v>
+        <v>2141887077.057359</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1784509889309797</v>
+        <v>0.1915185723487324</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02436653452026531</v>
+        <v>0.02748754587699311</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>915480491.4943093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1575527802.746563</v>
+        <v>1460241359.20543</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1566641142290071</v>
+        <v>0.1496107427977551</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05270637267862729</v>
+        <v>0.04905097580297625</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>787763848.6546135</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2763633022.437201</v>
+        <v>2601087712.048496</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1028758130923879</v>
+        <v>0.1620759051346631</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03123130676238578</v>
+        <v>0.04612422563583334</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>85</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1381816510.74269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4026541885.08271</v>
+        <v>3120150535.036675</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1165643047561297</v>
+        <v>0.1146769619077983</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03390232356887624</v>
+        <v>0.03231594658170753</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>113</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2013270973.652334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2108229675.045125</v>
+        <v>2012035531.959984</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1963389412434912</v>
+        <v>0.1611584455579694</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0211196480461765</v>
+        <v>0.02537938770287898</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>122</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1054114925.57162</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1732094104.137709</v>
+        <v>1567217562.831433</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07521620976089023</v>
+        <v>0.07644758368736233</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02736405128827328</v>
+        <v>0.02884029489401231</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>866047104.9530671</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1892859622.121781</v>
+        <v>2141666290.879828</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1430257987378794</v>
+        <v>0.1411464784257334</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05209329018006433</v>
+        <v>0.04853204956295899</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>946429791.1129056</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4306753845.274735</v>
+        <v>5645649350.516747</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1419664478766749</v>
+        <v>0.1248821560858372</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05996426642948733</v>
+        <v>0.06038289060467373</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>120</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2153376909.737187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5106244206.406332</v>
+        <v>4325460985.370492</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1992311424309419</v>
+        <v>0.1326924338029801</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03992844518553079</v>
+        <v>0.04201740548735782</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>90</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2553122165.017642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3124001117.740849</v>
+        <v>3346754203.328986</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06834710482374071</v>
+        <v>0.06756105385486896</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03029508853752498</v>
+        <v>0.03389382801525088</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1562000644.18803</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1825193482.32249</v>
+        <v>1539426260.802933</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1711465037956241</v>
+        <v>0.1213095536728259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0393304376281955</v>
+        <v>0.03463469816427953</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>912596722.6465439</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3576442741.925712</v>
+        <v>3482970842.189529</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1075532524257277</v>
+        <v>0.1145113923467171</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04384521321156069</v>
+        <v>0.04723775773380246</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>116</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1788221389.791162</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1080240719.430605</v>
+        <v>1530226545.946588</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1776564757476063</v>
+        <v>0.1845698723580755</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04977894770052434</v>
+        <v>0.03361603228019723</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>540120430.6731285</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4458193207.209361</v>
+        <v>4084944948.504503</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08428459333900402</v>
+        <v>0.09681977971746507</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03821721512436408</v>
+        <v>0.05520031447161066</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>139</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2229096633.122662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2325454675.137709</v>
+        <v>3324105768.975586</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1547727030655335</v>
+        <v>0.1771684549148269</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02620223830812212</v>
+        <v>0.02294133146461993</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1162727416.553782</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3004241685.004642</v>
+        <v>3590899498.723046</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1050872495078886</v>
+        <v>0.1322099093501683</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04554441781849311</v>
+        <v>0.04406950594047222</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>109</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1502120828.386553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3388784411.028826</v>
+        <v>4837142915.923708</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1835067200388915</v>
+        <v>0.1363801758683197</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02934668554649041</v>
+        <v>0.02487040933729913</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1694392153.438253</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1743976656.850999</v>
+        <v>1885752748.062606</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1053346812308673</v>
+        <v>0.1099205280011368</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03659102459785635</v>
+        <v>0.04414218112556765</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>871988334.5484951</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4577501194.048116</v>
+        <v>3060416483.139449</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1661608344326021</v>
+        <v>0.1816915167112984</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02045830678478681</v>
+        <v>0.02428097364511052</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>108</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2288750733.889609</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1726266504.534932</v>
+        <v>1424996243.042422</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1506867664716108</v>
+        <v>0.1787451243404943</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03886871403494347</v>
+        <v>0.03364593509072055</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>863133262.7531363</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4230464259.827479</v>
+        <v>3850067640.749213</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1124143826226899</v>
+        <v>0.1163173807170606</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04818540600203287</v>
+        <v>0.04669997742390893</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2115232094.756811</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3555138452.724995</v>
+        <v>3578914704.858187</v>
       </c>
       <c r="F60" t="n">
-        <v>0.125049493574653</v>
+        <v>0.1963312318380314</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02209165179570423</v>
+        <v>0.02504488621170958</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1777569354.952927</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2524818471.635568</v>
+        <v>2438154139.448396</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1149910801324811</v>
+        <v>0.118541556511609</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03042860132123028</v>
+        <v>0.030442428991543</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>115</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1262409261.104037</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1753309649.613662</v>
+        <v>1784130353.959176</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1227724723438162</v>
+        <v>0.1304018259003498</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04464881874436445</v>
+        <v>0.03490592718519168</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>876654845.8434324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3483451467.003011</v>
+        <v>4668072307.958314</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07821384757422631</v>
+        <v>0.06555762901680405</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04626045545194126</v>
+        <v>0.03800529662618234</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1741725818.942019</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5122767494.77289</v>
+        <v>4263240429.560765</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1569219049324447</v>
+        <v>0.1563984999747485</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02606214338453903</v>
+        <v>0.02664939678615252</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>105</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2561383862.228381</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5712901349.510962</v>
+        <v>4426210023.676265</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1224553217579148</v>
+        <v>0.1680699459224969</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02601977297552431</v>
+        <v>0.03004214261675572</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>121</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2856450591.118294</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4553107994.53222</v>
+        <v>5229703611.444743</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1328696384554905</v>
+        <v>0.1335486662060883</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04292631021209513</v>
+        <v>0.03540348488140063</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>98</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2276554000.526433</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2289468057.490212</v>
+        <v>2809208771.655037</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09981406902868656</v>
+        <v>0.09778633288470161</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04939659777178025</v>
+        <v>0.03849689283392244</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>108</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1144734107.141395</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4595431244.432075</v>
+        <v>5462196443.165853</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1141484337351238</v>
+        <v>0.09681227512603893</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04679019717784397</v>
+        <v>0.03961280351029896</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>110</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2297715654.09637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2370251702.74649</v>
+        <v>1759772588.693848</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1368085668431173</v>
+        <v>0.1685637507274496</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03708232222174717</v>
+        <v>0.04219906392117809</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1185125904.23537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2795457089.399802</v>
+        <v>2241989052.418125</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07006219103754348</v>
+        <v>0.08806944072748338</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03593539479178116</v>
+        <v>0.03714299545813581</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>97</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1397728508.395136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5395227544.176423</v>
+        <v>4957335865.209353</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1518044152811381</v>
+        <v>0.1493630037674624</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02605865700555087</v>
+        <v>0.02769378612940473</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>123</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2697613907.307652</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1979367589.004949</v>
+        <v>1783839742.102007</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1034607176644494</v>
+        <v>0.1075748663634232</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03582361695539977</v>
+        <v>0.04359047027121218</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>989683744.1792505</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3086458735.352506</v>
+        <v>2467368810.276997</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06861991235901493</v>
+        <v>0.1022545644863929</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03888530092600178</v>
+        <v>0.04962625447722688</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>129</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1543229355.745211</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3740866353.56469</v>
+        <v>3989455486.247657</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1349667283009192</v>
+        <v>0.150745799190821</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0308045735561415</v>
+        <v>0.02777477428050721</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>116</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1870433178.103988</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1757394683.998635</v>
+        <v>1808292475.66465</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1225631094956132</v>
+        <v>0.1102230346443763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03780815392343059</v>
+        <v>0.03435422299214451</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>878697328.9351308</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5177099757.045913</v>
+        <v>4635556028.921636</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09042673068990099</v>
+        <v>0.09513751639514968</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02899684765243654</v>
+        <v>0.02196410075013429</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2588549912.617842</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1897332697.965847</v>
+        <v>1809939452.311445</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1713790044444208</v>
+        <v>0.15608524647337</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02388361891734582</v>
+        <v>0.03002563259846817</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>948666395.3267642</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3540202373.678391</v>
+        <v>4034092218.887411</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1112310176736357</v>
+        <v>0.1176922384356239</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03832396147798025</v>
+        <v>0.05620382065370034</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>117</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1770101185.479317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1353986571.187093</v>
+        <v>1599335094.749535</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1067817684468495</v>
+        <v>0.1332210464326411</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02872724277934043</v>
+        <v>0.03466391682740969</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>676993294.2627857</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4596980521.456602</v>
+        <v>4819230899.980447</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09839474827201261</v>
+        <v>0.0827564068842833</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0332878857193153</v>
+        <v>0.03093259787676678</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>71</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2298490289.88914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5148011522.476355</v>
+        <v>4072097720.530636</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1192287167837033</v>
+        <v>0.1212039541882221</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03207833875328706</v>
+        <v>0.02723084488569408</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2574005767.0843</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4478738234.629194</v>
+        <v>4179430975.663368</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1441127839033556</v>
+        <v>0.1438081314055503</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0226765366362944</v>
+        <v>0.01831512084673705</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>118</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2239369130.358392</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2113187420.286017</v>
+        <v>1900093240.724308</v>
       </c>
       <c r="F83" t="n">
-        <v>0.150353029524077</v>
+        <v>0.1208692665320386</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0338900039339336</v>
+        <v>0.03081697079189208</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1056593709.550652</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2590019746.1358</v>
+        <v>2301316429.007701</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07778573888850318</v>
+        <v>0.08561450794211489</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05015891463520786</v>
+        <v>0.05127431285246652</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1295009791.72106</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3518574775.166205</v>
+        <v>2863556666.789781</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1652623959035903</v>
+        <v>0.1743435067483504</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04805600619852578</v>
+        <v>0.04489278471307009</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>127</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1759287504.994145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1933293092.09561</v>
+        <v>2061978457.245215</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1328316654303486</v>
+        <v>0.132588541213973</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02679502861855193</v>
+        <v>0.02466891367856019</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>966646564.4032017</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1427201071.247328</v>
+        <v>1065644062.417624</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1524740727357066</v>
+        <v>0.1160345121042633</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03978409078931226</v>
+        <v>0.03569895993053568</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>713600649.4617236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3089120914.266619</v>
+        <v>3284580757.714842</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1707123734207852</v>
+        <v>0.1250086577516385</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03450583247731102</v>
+        <v>0.02473361786623497</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>133</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1544560496.390941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2812097416.174776</v>
+        <v>2557376798.34283</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1319230820198676</v>
+        <v>0.1189955197481012</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03628460591338083</v>
+        <v>0.0406311846118759</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>115</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1406048759.991835</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1644800216.410748</v>
+        <v>1792694745.998943</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1109115953616258</v>
+        <v>0.1021031830641593</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04692219346244489</v>
+        <v>0.05113518394401096</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>822400113.4176806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1594071520.178308</v>
+        <v>1271963075.113368</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1463611852043388</v>
+        <v>0.1394912085425544</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0484604841194675</v>
+        <v>0.04701920314601141</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>797035786.4955431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2676200832.958234</v>
+        <v>2462974827.108988</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07007396698286274</v>
+        <v>0.1005532319983929</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03000190648187866</v>
+        <v>0.03510341588438771</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>91</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1338100413.756355</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4364786761.500443</v>
+        <v>3672224249.619764</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1160142862204835</v>
+        <v>0.1286166986941895</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05347620968977954</v>
+        <v>0.04660810675243777</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2182393357.786703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1790333263.502357</v>
+        <v>2107065226.090942</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1264438906687657</v>
+        <v>0.1183787777514592</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03799974381425474</v>
+        <v>0.02651110407026017</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>895166602.873363</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2816003558.614621</v>
+        <v>3156196290.268779</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1209068571418724</v>
+        <v>0.08516331213205977</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04302130751861467</v>
+        <v>0.04742509324696598</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>82</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1408001792.415765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1474338859.67656</v>
+        <v>2068001943.614108</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1388134785265858</v>
+        <v>0.1302274463607611</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03300350574286583</v>
+        <v>0.03046124878466339</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>737169472.9461179</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4140338910.982135</v>
+        <v>4903135214.113019</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1265282274911829</v>
+        <v>0.1300219454799354</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02253529490306815</v>
+        <v>0.02882260648474371</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>108</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2070169523.16431</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2395681839.374245</v>
+        <v>2953963142.953596</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09720506498406603</v>
+        <v>0.09205850764668344</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02335910191714895</v>
+        <v>0.02539040070230649</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1197840863.389968</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2710679046.858937</v>
+        <v>3088252651.751351</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0982330601945359</v>
+        <v>0.1106633390328064</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0305295290385507</v>
+        <v>0.03063848114602348</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>107</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1355339488.431909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4386556804.568663</v>
+        <v>3809725350.723055</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1755621857773237</v>
+        <v>0.1641259324809889</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01968444620325793</v>
+        <v>0.02152642009510328</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2193278503.834378</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2225245317.19559</v>
+        <v>2949624837.506221</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1440621077188967</v>
+        <v>0.2135409831594657</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03633055709425705</v>
+        <v>0.04478608897771987</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>136</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1112622645.280516</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_338.xlsx
+++ b/output/fit_clients/fit_round_338.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2220596979.815374</v>
+        <v>1777513284.887828</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1051296111023567</v>
+        <v>0.08834050086321424</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04437887475340059</v>
+        <v>0.03433179899733269</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2188928379.175189</v>
+        <v>1797448263.513535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1566285366429354</v>
+        <v>0.1624035975284261</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03620970405266407</v>
+        <v>0.03069154387646962</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3847138908.544915</v>
+        <v>3897180595.381881</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1215060354319864</v>
+        <v>0.1238704505132424</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03810589658813404</v>
+        <v>0.03577881659864312</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2712754373.776764</v>
+        <v>4175473741.731095</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08015486090411793</v>
+        <v>0.1101791853874193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03842321823169616</v>
+        <v>0.05087796418059574</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1954431696.082371</v>
+        <v>2737487508.110595</v>
       </c>
       <c r="F6" t="n">
-        <v>0.117662842276627</v>
+        <v>0.1111375154803327</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03884447825753188</v>
+        <v>0.04727069799534378</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3051966321.410235</v>
+        <v>3031310324.554871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08061103906598462</v>
+        <v>0.07380976561705137</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04275891700834548</v>
+        <v>0.0339319983025158</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3634696107.811263</v>
+        <v>2636564372.302157</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1990052190845263</v>
+        <v>0.1905485837806287</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02849140251082705</v>
+        <v>0.02569459876689582</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1870060978.540725</v>
+        <v>1485267789.858295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1593672271416814</v>
+        <v>0.1578541465309495</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03022669376936488</v>
+        <v>0.02269392875829276</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4332099381.026854</v>
+        <v>3869315978.61297</v>
       </c>
       <c r="F10" t="n">
-        <v>0.208859852564939</v>
+        <v>0.1487541763234847</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03519450186996759</v>
+        <v>0.03741419465758734</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3827798803.20291</v>
+        <v>3390158621.173137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1734720711109831</v>
+        <v>0.1285287720190954</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04120013214642436</v>
+        <v>0.03813330288059679</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2173140266.804563</v>
+        <v>2304548781.486448</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1610012056033329</v>
+        <v>0.1733584628865129</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04771131171669508</v>
+        <v>0.04486979921272296</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3881676354.301365</v>
+        <v>5206325170.70769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08486232030694034</v>
+        <v>0.07382275205244698</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02244376644451909</v>
+        <v>0.02357701323656417</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3615301903.381954</v>
+        <v>2850521188.738781</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1810743582858181</v>
+        <v>0.1231309981035674</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03870153715232597</v>
+        <v>0.04039205022873268</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1587946675.686969</v>
+        <v>1734105165.508295</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09301856393877464</v>
+        <v>0.08766028965899984</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0335951553691617</v>
+        <v>0.04825021047239633</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2358312974.26925</v>
+        <v>2516895162.931483</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1141260082357095</v>
+        <v>0.08528696799422823</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04324322134125773</v>
+        <v>0.03281589286906857</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3582605285.741264</v>
+        <v>4903355743.55131</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1320391825138222</v>
+        <v>0.1158947326366204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04704180381649194</v>
+        <v>0.04330724303221171</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3792823490.789148</v>
+        <v>3256866827.678739</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1177606479411622</v>
+        <v>0.1826562739561978</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03014682224790068</v>
+        <v>0.02299544161951188</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1277888999.387529</v>
+        <v>1095866078.372386</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1297284704668102</v>
+        <v>0.1517366522821385</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02312688157914843</v>
+        <v>0.02446736939065198</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2502537265.528409</v>
+        <v>2438476531.338923</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1009084996568339</v>
+        <v>0.1319427486981887</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0203780885384859</v>
+        <v>0.02448716838120193</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2559956034.398856</v>
+        <v>2418923985.957848</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07615821228552358</v>
+        <v>0.08440157186166006</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03110359017849922</v>
+        <v>0.03877416039466298</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3679717158.670142</v>
+        <v>3099790471.822424</v>
       </c>
       <c r="F22" t="n">
-        <v>0.127902355805678</v>
+        <v>0.1169334774300431</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05429019303481784</v>
+        <v>0.04247464552234917</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1520480561.531786</v>
+        <v>1458874721.157336</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1245930631130843</v>
+        <v>0.1561534752657887</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03336107747020349</v>
+        <v>0.03423543675124818</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3091746182.91261</v>
+        <v>3086714995.288353</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1033776189989549</v>
+        <v>0.1188563656680179</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03710468362597358</v>
+        <v>0.03657130667055098</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1113035595.602337</v>
+        <v>1397310791.210916</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09326806652685334</v>
+        <v>0.1053636600600867</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02845155708428468</v>
+        <v>0.02825433366341923</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1116998072.627776</v>
+        <v>1132643800.846696</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1185192499681065</v>
+        <v>0.0869370798619552</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0390865941901449</v>
+        <v>0.02652419272194968</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4436373655.448817</v>
+        <v>3421454167.602263</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0988892052089866</v>
+        <v>0.1101709215035625</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02556937666748254</v>
+        <v>0.01741359396567084</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3468682309.592283</v>
+        <v>3113124752.976483</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1431966587412045</v>
+        <v>0.1391047838851968</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04859162107527384</v>
+        <v>0.03374180130723647</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4844945934.7581</v>
+        <v>5673845489.350218</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1037144178900605</v>
+        <v>0.1130758325297669</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0457958568474974</v>
+        <v>0.04413078490673254</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2183738525.074276</v>
+        <v>2209152187.026373</v>
       </c>
       <c r="F30" t="n">
-        <v>0.123432456994678</v>
+        <v>0.122405877912452</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03368802738683108</v>
+        <v>0.03008089969184997</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1334335390.565821</v>
+        <v>1041528907.20338</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09469129916108582</v>
+        <v>0.09914400643068938</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05225375363570713</v>
+        <v>0.04507221523507757</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1256143168.160642</v>
+        <v>1151690912.866779</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09737849222834249</v>
+        <v>0.1073238842270245</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03260161285685052</v>
+        <v>0.02483298614529972</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2552921313.895901</v>
+        <v>3091441825.623013</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1994749864135733</v>
+        <v>0.1709107268634381</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05336507262939151</v>
+        <v>0.05041030181569773</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1491472134.652692</v>
+        <v>1472101583.768492</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1180748807217746</v>
+        <v>0.1200266099524477</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02746009673579817</v>
+        <v>0.02619601918933753</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1223304701.329254</v>
+        <v>1337081943.419977</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09226404259183232</v>
+        <v>0.1029018508166097</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03182344563225643</v>
+        <v>0.03478008481133116</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2936112098.544224</v>
+        <v>3007769864.685616</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1215013761942685</v>
+        <v>0.1649783605504907</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02666663663300565</v>
+        <v>0.02325903274663448</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1912717380.418938</v>
+        <v>2681464340.732147</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0796812117223913</v>
+        <v>0.07935869731456244</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03179573420437756</v>
+        <v>0.02603327168552029</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2141729739.390422</v>
+        <v>2191050094.174405</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09821891005089216</v>
+        <v>0.1139511886197883</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03859365840051533</v>
+        <v>0.02953986982445304</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2141887077.057359</v>
+        <v>1697523003.490349</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1915185723487324</v>
+        <v>0.131342129796116</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02748754587699311</v>
+        <v>0.02940515964522588</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1460241359.20543</v>
+        <v>1464026239.249792</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1496107427977551</v>
+        <v>0.09900432917461587</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04905097580297625</v>
+        <v>0.05436505202130898</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2601087712.048496</v>
+        <v>1855629275.087255</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1620759051346631</v>
+        <v>0.1071416110726404</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04612422563583334</v>
+        <v>0.04548200654520869</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3120150535.036675</v>
+        <v>3110307363.04765</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1146769619077983</v>
+        <v>0.1089292202324122</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03231594658170753</v>
+        <v>0.03169699160281328</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2012035531.959984</v>
+        <v>2738317915.11891</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1611584455579694</v>
+        <v>0.152721526580725</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02537938770287898</v>
+        <v>0.01853418449124865</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1567217562.831433</v>
+        <v>2284695602.957797</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07644758368736233</v>
+        <v>0.08303486407811755</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02884029489401231</v>
+        <v>0.03586632805225334</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2141666290.879828</v>
+        <v>2482505785.513803</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1411464784257334</v>
+        <v>0.1577218646961283</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04853204956295899</v>
+        <v>0.0369995872471805</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5645649350.516747</v>
+        <v>4684371337.470111</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1248821560858372</v>
+        <v>0.1356737577734371</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06038289060467373</v>
+        <v>0.03834804930773327</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4325460985.370492</v>
+        <v>4453069581.454148</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1326924338029801</v>
+        <v>0.1343464258166778</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04201740548735782</v>
+        <v>0.04591672426890274</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3346754203.328986</v>
+        <v>3300622785.80534</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06756105385486896</v>
+        <v>0.0667211140661769</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03389382801525088</v>
+        <v>0.02388023944590833</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1539426260.802933</v>
+        <v>1584990530.181535</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1213095536728259</v>
+        <v>0.1275377617747438</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03463469816427953</v>
+        <v>0.03144174240011961</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3482970842.189529</v>
+        <v>4175350804.890777</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1145113923467171</v>
+        <v>0.1462044991029712</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04723775773380246</v>
+        <v>0.04189618765979871</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1530226545.946588</v>
+        <v>950769555.1517199</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1845698723580755</v>
+        <v>0.154020749160092</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03361603228019723</v>
+        <v>0.03636177618352599</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4084944948.504503</v>
+        <v>4031141267.096223</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09681977971746507</v>
+        <v>0.1276689502980925</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05520031447161066</v>
+        <v>0.04040442248888336</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3324105768.975586</v>
+        <v>2860014845.251378</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1771684549148269</v>
+        <v>0.1244543003775841</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02294133146461993</v>
+        <v>0.02880733981351188</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3590899498.723046</v>
+        <v>4859059913.960934</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1322099093501683</v>
+        <v>0.1551848445111591</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04406950594047222</v>
+        <v>0.04965224831379009</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4837142915.923708</v>
+        <v>4619108995.94671</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1363801758683197</v>
+        <v>0.1660872223882675</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02487040933729913</v>
+        <v>0.03211653872371092</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1885752748.062606</v>
+        <v>1355697330.82371</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1099205280011368</v>
+        <v>0.103736985285338</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04414218112556765</v>
+        <v>0.03686854312190574</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3060416483.139449</v>
+        <v>3466641122.060821</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1816915167112984</v>
+        <v>0.1739632283997676</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02428097364511052</v>
+        <v>0.02130987451050485</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1424996243.042422</v>
+        <v>1661096221.259463</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1787451243404943</v>
+        <v>0.149453273371168</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03364593509072055</v>
+        <v>0.03874094885276552</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3850067640.749213</v>
+        <v>5358589279.683715</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1163173807170606</v>
+        <v>0.0813278837974697</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04669997742390893</v>
+        <v>0.04255618770224506</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3578914704.858187</v>
+        <v>2891664396.251445</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1963312318380314</v>
+        <v>0.1336807751048033</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02504488621170958</v>
+        <v>0.03314267722641476</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2438154139.448396</v>
+        <v>3389027497.158</v>
       </c>
       <c r="F61" t="n">
-        <v>0.118541556511609</v>
+        <v>0.180562311267684</v>
       </c>
       <c r="G61" t="n">
-        <v>0.030442428991543</v>
+        <v>0.03268407311472918</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1784130353.959176</v>
+        <v>1347135671.329353</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1304018259003498</v>
+        <v>0.1683631224744387</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03490592718519168</v>
+        <v>0.03651451748766745</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4668072307.958314</v>
+        <v>4335058749.119237</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06555762901680405</v>
+        <v>0.09210020055744156</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03800529662618234</v>
+        <v>0.04145119192432376</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4263240429.560765</v>
+        <v>4821061009.605324</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1563984999747485</v>
+        <v>0.1197887317644</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02664939678615252</v>
+        <v>0.03323301374828815</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4426210023.676265</v>
+        <v>4952347224.78932</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1680699459224969</v>
+        <v>0.1649790796567609</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03004214261675572</v>
+        <v>0.02204454102127578</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5229703611.444743</v>
+        <v>3621531998.23865</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1335486662060883</v>
+        <v>0.128232617800702</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03540348488140063</v>
+        <v>0.04898912917277404</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2809208771.655037</v>
+        <v>3316488720.60433</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09778633288470161</v>
+        <v>0.08117040960926486</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03849689283392244</v>
+        <v>0.04944695052070813</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5462196443.165853</v>
+        <v>5402366496.873403</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09681227512603893</v>
+        <v>0.1448711593904863</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03961280351029896</v>
+        <v>0.03431681093167657</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1759772588.693848</v>
+        <v>2476272175.975523</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1685637507274496</v>
+        <v>0.182386895255037</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04219906392117809</v>
+        <v>0.05688120351212102</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2241989052.418125</v>
+        <v>3169015291.680321</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08806944072748338</v>
+        <v>0.09645397310370626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03714299545813581</v>
+        <v>0.03391070862965703</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4957335865.209353</v>
+        <v>3771790753.325146</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1493630037674624</v>
+        <v>0.1226724111828151</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02769378612940473</v>
+        <v>0.03305279322289727</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1783839742.102007</v>
+        <v>1905979666.297036</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1075748663634232</v>
+        <v>0.06826545517426538</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04359047027121218</v>
+        <v>0.04585072289284237</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2467368810.276997</v>
+        <v>2953429783.694955</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1022545644863929</v>
+        <v>0.07682830606313459</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04962625447722688</v>
+        <v>0.04696797713780876</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3989455486.247657</v>
+        <v>2456971375.255397</v>
       </c>
       <c r="F74" t="n">
-        <v>0.150745799190821</v>
+        <v>0.1836719920522782</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02777477428050721</v>
+        <v>0.03029677253042953</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1808292475.66465</v>
+        <v>2378080136.030757</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1102230346443763</v>
+        <v>0.1458603898680487</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03435422299214451</v>
+        <v>0.03492750477043357</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4635556028.921636</v>
+        <v>4213215226.036963</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09513751639514968</v>
+        <v>0.08872443701901582</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02196410075013429</v>
+        <v>0.02747616430363031</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1809939452.311445</v>
+        <v>1656438719.104736</v>
       </c>
       <c r="F77" t="n">
-        <v>0.15608524647337</v>
+        <v>0.1509918421345475</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03002563259846817</v>
+        <v>0.03137064396589727</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4034092218.887411</v>
+        <v>3551541874.704679</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1176922384356239</v>
+        <v>0.0999961414095127</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05620382065370034</v>
+        <v>0.05279930863567055</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1599335094.749535</v>
+        <v>1251116593.731304</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1332210464326411</v>
+        <v>0.1221730340937478</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03466391682740969</v>
+        <v>0.03778762284022789</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4819230899.980447</v>
+        <v>3954776997.655968</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0827564068842833</v>
+        <v>0.09180803679130226</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03093259787676678</v>
+        <v>0.02684801714807649</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4072097720.530636</v>
+        <v>4074295059.425777</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1212039541882221</v>
+        <v>0.1170024207090252</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02723084488569408</v>
+        <v>0.0253254340948002</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4179430975.663368</v>
+        <v>5202741221.56682</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1438081314055503</v>
+        <v>0.1855561748319806</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01831512084673705</v>
+        <v>0.02164669270349019</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1900093240.724308</v>
+        <v>2013763040.339881</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1208692665320386</v>
+        <v>0.1178296706699313</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03081697079189208</v>
+        <v>0.03175750796597108</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2301316429.007701</v>
+        <v>1985265358.358012</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08561450794211489</v>
+        <v>0.09299223986447844</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05127431285246652</v>
+        <v>0.05149087664611311</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2863556666.789781</v>
+        <v>2597966279.006838</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1743435067483504</v>
+        <v>0.1140045785204469</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04489278471307009</v>
+        <v>0.03648726263872726</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2061978457.245215</v>
+        <v>1953426997.10054</v>
       </c>
       <c r="F86" t="n">
-        <v>0.132588541213973</v>
+        <v>0.1702294870118597</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02466891367856019</v>
+        <v>0.01994663631187124</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1065644062.417624</v>
+        <v>1254775117.720988</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1160345121042633</v>
+        <v>0.1673400549936601</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03569895993053568</v>
+        <v>0.03312914444653484</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3284580757.714842</v>
+        <v>2654607433.671781</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1250086577516385</v>
+        <v>0.1622424926271953</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02473361786623497</v>
+        <v>0.03043348760607881</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2557376798.34283</v>
+        <v>3020951465.037958</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1189955197481012</v>
+        <v>0.1029194622393439</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0406311846118759</v>
+        <v>0.04084664229493259</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1792694745.998943</v>
+        <v>1718130368.550565</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1021031830641593</v>
+        <v>0.1268089835039923</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05113518394401096</v>
+        <v>0.04950034174576601</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1271963075.113368</v>
+        <v>1771974697.558927</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1394912085425544</v>
+        <v>0.1240743719611169</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04701920314601141</v>
+        <v>0.06109246406730705</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2462974827.108988</v>
+        <v>2526973349.521326</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1005532319983929</v>
+        <v>0.08130575366909612</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03510341588438771</v>
+        <v>0.0309833625448969</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3672224249.619764</v>
+        <v>3422725899.417739</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1286166986941895</v>
+        <v>0.1016705185801865</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04660810675243777</v>
+        <v>0.03457579586983387</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2107065226.090942</v>
+        <v>2412802482.166045</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1183787777514592</v>
+        <v>0.1679395858762902</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02651110407026017</v>
+        <v>0.03729350318112713</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3156196290.268779</v>
+        <v>2503631493.985799</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08516331213205977</v>
+        <v>0.1237113875864411</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04742509324696598</v>
+        <v>0.03331141630596823</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2068001943.614108</v>
+        <v>2314485439.875024</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1302274463607611</v>
+        <v>0.1315191264215217</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03046124878466339</v>
+        <v>0.0426604611107597</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4903135214.113019</v>
+        <v>5196781228.54095</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1300219454799354</v>
+        <v>0.1533867045023888</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02882260648474371</v>
+        <v>0.02563143530180525</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2953963142.953596</v>
+        <v>3117222558.933564</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09205850764668344</v>
+        <v>0.09020832678001842</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02539040070230649</v>
+        <v>0.03020711829566268</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3088252651.751351</v>
+        <v>3022502401.95156</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1106633390328064</v>
+        <v>0.1342677637332634</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03063848114602348</v>
+        <v>0.03537011699731793</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3809725350.723055</v>
+        <v>3970352265.800783</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1641259324809889</v>
+        <v>0.1146116204232179</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02152642009510328</v>
+        <v>0.02377738773552423</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2949624837.506221</v>
+        <v>2456186094.086223</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2135409831594657</v>
+        <v>0.2168211941163537</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04478608897771987</v>
+        <v>0.04714787279027929</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_338.xlsx
+++ b/output/fit_clients/fit_round_338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1777513284.887828</v>
+        <v>2362949196.439408</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08834050086321424</v>
+        <v>0.07801047019597145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03433179899733269</v>
+        <v>0.03199728332044783</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1797448263.513535</v>
+        <v>1948380405.785356</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1624035975284261</v>
+        <v>0.1631679774873703</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03069154387646962</v>
+        <v>0.04583364029156309</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3897180595.381881</v>
+        <v>4595397043.783865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1238704505132424</v>
+        <v>0.1332449746090866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03577881659864312</v>
+        <v>0.03140577361748209</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>175</v>
+      </c>
+      <c r="J4" t="n">
+        <v>338</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4175473741.731095</v>
+        <v>3401927581.281011</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1101791853874193</v>
+        <v>0.09961203236503689</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05087796418059574</v>
+        <v>0.03103963672529516</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>134</v>
+      </c>
+      <c r="J5" t="n">
+        <v>336</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2737487508.110595</v>
+        <v>2645899844.494897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1111375154803327</v>
+        <v>0.1350530888434978</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04727069799534378</v>
+        <v>0.03987702358351662</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3031310324.554871</v>
+        <v>2455248510.088915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07380976561705137</v>
+        <v>0.07967667087806314</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0339319983025158</v>
+        <v>0.04235713086550286</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2636564372.302157</v>
+        <v>2974795872.363592</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1905485837806287</v>
+        <v>0.1747580652635295</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02569459876689582</v>
+        <v>0.03096578452531499</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1485267789.858295</v>
+        <v>2148729775.712336</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1578541465309495</v>
+        <v>0.1499350066279828</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02269392875829276</v>
+        <v>0.02467703515299946</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3869315978.61297</v>
+        <v>4954884809.484993</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1487541763234847</v>
+        <v>0.1527606877000399</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03741419465758734</v>
+        <v>0.04440377397877245</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>289</v>
+      </c>
+      <c r="J10" t="n">
+        <v>338</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +810,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3390158621.173137</v>
+        <v>4026793633.801132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1285287720190954</v>
+        <v>0.1527209209198402</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03813330288059679</v>
+        <v>0.03658761181097818</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>138</v>
+      </c>
+      <c r="J11" t="n">
+        <v>338</v>
+      </c>
+      <c r="K11" t="n">
+        <v>80.08702462853721</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2304548781.486448</v>
+        <v>3096379202.88633</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1733584628865129</v>
+        <v>0.1283488712498748</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04486979921272296</v>
+        <v>0.04468152692006129</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5206325170.70769</v>
+        <v>4628170932.704468</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07382275205244698</v>
+        <v>0.06586838205639423</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02357701323656417</v>
+        <v>0.02655384659638672</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>176</v>
+      </c>
+      <c r="J13" t="n">
+        <v>337</v>
+      </c>
+      <c r="K13" t="n">
+        <v>68.19393252080211</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2850521188.738781</v>
+        <v>2866317906.309439</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1231309981035674</v>
+        <v>0.1437260102166947</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04039205022873268</v>
+        <v>0.03866911495161476</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1734105165.508295</v>
+        <v>1253651823.519319</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08766028965899984</v>
+        <v>0.09920557948512748</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04825021047239633</v>
+        <v>0.04822930570904048</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2516895162.931483</v>
+        <v>2292838227.351754</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08528696799422823</v>
+        <v>0.09107340818712294</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03281589286906857</v>
+        <v>0.03210024935586833</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4903355743.55131</v>
+        <v>3753013469.573651</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1158947326366204</v>
+        <v>0.1186384932596559</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04330724303221171</v>
+        <v>0.04328314923832557</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>159</v>
+      </c>
+      <c r="J17" t="n">
+        <v>338</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3256866827.678739</v>
+        <v>3209977223.958928</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1826562739561978</v>
+        <v>0.1219006729988609</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02299544161951188</v>
+        <v>0.03131017265504071</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1095866078.372386</v>
+        <v>1358869573.3008</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1517366522821385</v>
+        <v>0.1879861441625233</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02446736939065198</v>
+        <v>0.01947805625857836</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2438476531.338923</v>
+        <v>1846536729.85654</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1319427486981887</v>
+        <v>0.097504037547735</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02448716838120193</v>
+        <v>0.02189792760223547</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2418923985.957848</v>
+        <v>2638569063.047041</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08440157186166006</v>
+        <v>0.06564197202930945</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03877416039466298</v>
+        <v>0.03741938619395378</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3099790471.822424</v>
+        <v>3958035775.641335</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1169334774300431</v>
+        <v>0.1401332970350798</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04247464552234917</v>
+        <v>0.04469521182845398</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1458874721.157336</v>
+        <v>1232592595.908927</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1561534752657887</v>
+        <v>0.1461144547345179</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03423543675124818</v>
+        <v>0.04244428530413794</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1275,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3086714995.288353</v>
+        <v>3902706001.077826</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1188563656680179</v>
+        <v>0.1407327763767627</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03657130667055098</v>
+        <v>0.03766751547446936</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>99</v>
+      </c>
+      <c r="J24" t="n">
+        <v>338</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1397310791.210916</v>
+        <v>1388099973.551651</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1053636600600867</v>
+        <v>0.1165356093375097</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02825433366341923</v>
+        <v>0.02617259149799352</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1345,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1132643800.846696</v>
+        <v>1380602178.497636</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0869370798619552</v>
+        <v>0.1011087558134025</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02652419272194968</v>
+        <v>0.02565365810207465</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3421454167.602263</v>
+        <v>4514881588.910707</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1101709215035625</v>
+        <v>0.119967132222589</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01741359396567084</v>
+        <v>0.02347234579478313</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>141</v>
+      </c>
+      <c r="J27" t="n">
+        <v>338</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3113124752.976483</v>
+        <v>3455599553.214341</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1391047838851968</v>
+        <v>0.09151602409771638</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03374180130723647</v>
+        <v>0.05024713776755079</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>73</v>
+      </c>
+      <c r="J28" t="n">
+        <v>335</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1450,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5673845489.350218</v>
+        <v>5661849859.953726</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1130758325297669</v>
+        <v>0.1360979928665489</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04413078490673254</v>
+        <v>0.04389006305237182</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>306</v>
+      </c>
+      <c r="J29" t="n">
+        <v>338</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1485,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2209152187.026373</v>
+        <v>1742219353.83479</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122405877912452</v>
+        <v>0.09095064493589756</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03008089969184997</v>
+        <v>0.03803809450030896</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1514,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1041528907.20338</v>
+        <v>1454407812.281232</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09914400643068938</v>
+        <v>0.077049981587844</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04507221523507757</v>
+        <v>0.04741532283246933</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1549,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1151690912.866779</v>
+        <v>1891642411.318822</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1073238842270245</v>
+        <v>0.0929092443039183</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02483298614529972</v>
+        <v>0.03350827363197001</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1584,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3091441825.623013</v>
+        <v>2823557584.969036</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1709107268634381</v>
+        <v>0.1697994243227086</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05041030181569773</v>
+        <v>0.05697764637139233</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1619,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1472101583.768492</v>
+        <v>1316877900.281462</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1200266099524477</v>
+        <v>0.114348959087059</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02619601918933753</v>
+        <v>0.02625370138046288</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1654,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1337081943.419977</v>
+        <v>1097788805.765361</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1029018508166097</v>
+        <v>0.1035088579841717</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03478008481133116</v>
+        <v>0.03026998568307099</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1689,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3007769864.685616</v>
+        <v>2166039589.985215</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1649783605504907</v>
+        <v>0.145093584238967</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02325903274663448</v>
+        <v>0.02346848353506254</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1724,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2681464340.732147</v>
+        <v>2785164048.152792</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07935869731456244</v>
+        <v>0.06920670745815634</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02603327168552029</v>
+        <v>0.04066464257332657</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1759,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2191050094.174405</v>
+        <v>1486999297.39452</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1139511886197883</v>
+        <v>0.0750879841856467</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02953986982445304</v>
+        <v>0.03496377368489725</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1800,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1697523003.490349</v>
+        <v>2146886628.549365</v>
       </c>
       <c r="F39" t="n">
-        <v>0.131342129796116</v>
+        <v>0.1620523433314389</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02940515964522588</v>
+        <v>0.02387531456940584</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1835,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1464026239.249792</v>
+        <v>1339607561.735133</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09900432917461587</v>
+        <v>0.143314685518637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05436505202130898</v>
+        <v>0.05989811926020739</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1864,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1855629275.087255</v>
+        <v>1921046862.853723</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1071416110726404</v>
+        <v>0.1513066119036501</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04548200654520869</v>
+        <v>0.03423428617531231</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1899,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3110307363.04765</v>
+        <v>3630248014.703261</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1089292202324122</v>
+        <v>0.08764710108739238</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03169699160281328</v>
+        <v>0.03684150001192825</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>145</v>
+      </c>
+      <c r="J42" t="n">
+        <v>338</v>
+      </c>
+      <c r="K42" t="n">
+        <v>74.13088625234499</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1936,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2738317915.11891</v>
+        <v>2528448958.255163</v>
       </c>
       <c r="F43" t="n">
-        <v>0.152721526580725</v>
+        <v>0.1524736995668177</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01853418449124865</v>
+        <v>0.01997934082612587</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1971,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2284695602.957797</v>
+        <v>2332239748.860104</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08303486407811755</v>
+        <v>0.08006365940697213</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03586632805225334</v>
+        <v>0.02379258874907822</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2012,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2482505785.513803</v>
+        <v>2444860663.010986</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1577218646961283</v>
+        <v>0.1258663874237508</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0369995872471805</v>
+        <v>0.03524324836426081</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2041,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4684371337.470111</v>
+        <v>3805238265.114779</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1356737577734371</v>
+        <v>0.1225737648374824</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03834804930773327</v>
+        <v>0.052294568261246</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>202</v>
+      </c>
+      <c r="J46" t="n">
+        <v>338</v>
+      </c>
+      <c r="K46" t="n">
+        <v>70.28390584415614</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2084,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4453069581.454148</v>
+        <v>4468772432.079639</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1343464258166778</v>
+        <v>0.1935707735752416</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04591672426890274</v>
+        <v>0.05338436059732229</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>150</v>
+      </c>
+      <c r="J47" t="n">
+        <v>338</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2113,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3300622785.80534</v>
+        <v>3120901210.380394</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0667211140661769</v>
+        <v>0.07526760100812749</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02388023944590833</v>
+        <v>0.03762960590456675</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>168</v>
+      </c>
+      <c r="J48" t="n">
+        <v>337</v>
+      </c>
+      <c r="K48" t="n">
+        <v>53.35721214986369</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1584990530.181535</v>
+        <v>1417352614.829465</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1275377617747438</v>
+        <v>0.1853559210857327</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03144174240011961</v>
+        <v>0.04358193205181839</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4175350804.890777</v>
+        <v>3389789462.001159</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1462044991029712</v>
+        <v>0.1370351995972441</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04189618765979871</v>
+        <v>0.04894834142370545</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>111</v>
+      </c>
+      <c r="J50" t="n">
+        <v>336</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2226,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>950769555.1517199</v>
+        <v>1222609766.628133</v>
       </c>
       <c r="F51" t="n">
-        <v>0.154020749160092</v>
+        <v>0.1737272125328742</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03636177618352599</v>
+        <v>0.04040221715858736</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2261,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4031141267.096223</v>
+        <v>3607657400.062062</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1276689502980925</v>
+        <v>0.1025555727098922</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04040442248888336</v>
+        <v>0.0468053122986349</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>203</v>
+      </c>
+      <c r="J52" t="n">
+        <v>337</v>
+      </c>
+      <c r="K52" t="n">
+        <v>62.91094264161026</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2860014845.251378</v>
+        <v>3195840912.174545</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1244543003775841</v>
+        <v>0.1375439320586031</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02880733981351188</v>
+        <v>0.0272366634744406</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>48</v>
+      </c>
+      <c r="J53" t="n">
+        <v>335</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2333,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4859059913.960934</v>
+        <v>3494781534.649486</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1551848445111591</v>
+        <v>0.1400035928474553</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04965224831379009</v>
+        <v>0.04257440904485921</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>179</v>
+      </c>
+      <c r="J54" t="n">
+        <v>337</v>
+      </c>
+      <c r="K54" t="n">
+        <v>61.20767775221493</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4619108995.94671</v>
+        <v>4050270057.061974</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1660872223882675</v>
+        <v>0.1424519278993287</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03211653872371092</v>
+        <v>0.02761328641489013</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>161</v>
+      </c>
+      <c r="J55" t="n">
+        <v>337</v>
+      </c>
+      <c r="K55" t="n">
+        <v>68.42218930758371</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1355697330.82371</v>
+        <v>1574921616.1682</v>
       </c>
       <c r="F56" t="n">
-        <v>0.103736985285338</v>
+        <v>0.1577816341783231</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03686854312190574</v>
+        <v>0.05004351868911369</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3466641122.060821</v>
+        <v>3442385218.175987</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1739632283997676</v>
+        <v>0.1192752258731321</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02130987451050485</v>
+        <v>0.01777731366991775</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>138</v>
+      </c>
+      <c r="J57" t="n">
+        <v>337</v>
+      </c>
+      <c r="K57" t="n">
+        <v>64.16688835181731</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1661096221.259463</v>
+        <v>1579981816.36367</v>
       </c>
       <c r="F58" t="n">
-        <v>0.149453273371168</v>
+        <v>0.1573761749232505</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03874094885276552</v>
+        <v>0.0241638844404318</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5358589279.683715</v>
+        <v>3979469578.151736</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0813278837974697</v>
+        <v>0.1223880071809622</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04255618770224506</v>
+        <v>0.03949810113486067</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>163</v>
+      </c>
+      <c r="J59" t="n">
+        <v>337</v>
+      </c>
+      <c r="K59" t="n">
+        <v>66.07276841480105</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2891664396.251445</v>
+        <v>3549171355.232539</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1336807751048033</v>
+        <v>0.1931151188956461</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03314267722641476</v>
+        <v>0.02347597601261647</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>59</v>
+      </c>
+      <c r="J60" t="n">
+        <v>338</v>
+      </c>
+      <c r="K60" t="n">
+        <v>82.32702155405907</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3389027497.158</v>
+        <v>2061148358.723366</v>
       </c>
       <c r="F61" t="n">
-        <v>0.180562311267684</v>
+        <v>0.1556970154572211</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03268407311472918</v>
+        <v>0.0208542562368615</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1347135671.329353</v>
+        <v>2065413081.915324</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1683631224744387</v>
+        <v>0.1444721898978891</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03651451748766745</v>
+        <v>0.04190831852392887</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4335058749.119237</v>
+        <v>3705387322.919563</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09210020055744156</v>
+        <v>0.09956051056342774</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04145119192432376</v>
+        <v>0.03197894482767657</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>165</v>
+      </c>
+      <c r="J63" t="n">
+        <v>338</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4821061009.605324</v>
+        <v>3765110653.933016</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1197887317644</v>
+        <v>0.1228168360984187</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03323301374828815</v>
+        <v>0.02895645150317112</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>167</v>
+      </c>
+      <c r="J64" t="n">
+        <v>338</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4952347224.78932</v>
+        <v>5735977401.756698</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1649790796567609</v>
+        <v>0.1506806047571686</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02204454102127578</v>
+        <v>0.02182118472109388</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>262</v>
+      </c>
+      <c r="J65" t="n">
+        <v>338</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2763,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3621531998.23865</v>
+        <v>4955577987.59292</v>
       </c>
       <c r="F66" t="n">
-        <v>0.128232617800702</v>
+        <v>0.1286203678143294</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04898912917277404</v>
+        <v>0.04101572095051189</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>167</v>
+      </c>
+      <c r="J66" t="n">
+        <v>337</v>
+      </c>
+      <c r="K66" t="n">
+        <v>62.90837693399003</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3316488720.60433</v>
+        <v>3434713371.913932</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08117040960926486</v>
+        <v>0.06427542758695325</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04944695052070813</v>
+        <v>0.04298194025508767</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5402366496.873403</v>
+        <v>3660338109.26679</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1448711593904863</v>
+        <v>0.09984020092930995</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03431681093167657</v>
+        <v>0.04278176612555526</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>184</v>
+      </c>
+      <c r="J68" t="n">
+        <v>337</v>
+      </c>
+      <c r="K68" t="n">
+        <v>67.19941994680416</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2476272175.975523</v>
+        <v>2140256586.504398</v>
       </c>
       <c r="F69" t="n">
-        <v>0.182386895255037</v>
+        <v>0.1559792683443784</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05688120351212102</v>
+        <v>0.03665737609781882</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3169015291.680321</v>
+        <v>2538555816.263495</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09645397310370626</v>
+        <v>0.09811450194802232</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03391070862965703</v>
+        <v>0.03822023503001348</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3771790753.325146</v>
+        <v>3955884488.138441</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1226724111828151</v>
+        <v>0.1845257203359492</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03305279322289727</v>
+        <v>0.03122868296999192</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>249</v>
+      </c>
+      <c r="J71" t="n">
+        <v>337</v>
+      </c>
+      <c r="K71" t="n">
+        <v>67.45708319915686</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1905979666.297036</v>
+        <v>2021565847.037937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06826545517426538</v>
+        <v>0.09528853882582024</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04585072289284237</v>
+        <v>0.04828815850604717</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2953429783.694955</v>
+        <v>2750137925.026841</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07682830606313459</v>
+        <v>0.09015642448844206</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04696797713780876</v>
+        <v>0.03478243787710422</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2456971375.255397</v>
+        <v>3866806682.473822</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1836719920522782</v>
+        <v>0.1812422049995306</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03029677253042953</v>
+        <v>0.02532791877764459</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>89</v>
+      </c>
+      <c r="J74" t="n">
+        <v>338</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2378080136.030757</v>
+        <v>2098236813.024351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1458603898680487</v>
+        <v>0.1108069270566099</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03492750477043357</v>
+        <v>0.03699195462952214</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4213215226.036963</v>
+        <v>4885547316.135746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08872443701901582</v>
+        <v>0.09898289564071462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02747616430363031</v>
+        <v>0.02796274997116078</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>159</v>
+      </c>
+      <c r="J76" t="n">
+        <v>338</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1656438719.104736</v>
+        <v>2137679948.908041</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1509918421345475</v>
+        <v>0.1859507456343234</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03137064396589727</v>
+        <v>0.02570062591471145</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3551541874.704679</v>
+        <v>4169849746.589522</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0999961414095127</v>
+        <v>0.1015369697025979</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05279930863567055</v>
+        <v>0.04197067112741213</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>166</v>
+      </c>
+      <c r="J78" t="n">
+        <v>338</v>
+      </c>
+      <c r="K78" t="n">
+        <v>72.0003026666692</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1251116593.731304</v>
+        <v>1611409680.352433</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1221730340937478</v>
+        <v>0.1698793767645414</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03778762284022789</v>
+        <v>0.03611963238272295</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3954776997.655968</v>
+        <v>5497402225.070928</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09180803679130226</v>
+        <v>0.09933040405468517</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02684801714807649</v>
+        <v>0.02451814616727177</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>165</v>
+      </c>
+      <c r="J80" t="n">
+        <v>338</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4074295059.425777</v>
+        <v>4486855731.715258</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1170024207090252</v>
+        <v>0.1182553908502465</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0253254340948002</v>
+        <v>0.028996482392108</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>156</v>
+      </c>
+      <c r="J81" t="n">
+        <v>337</v>
+      </c>
+      <c r="K81" t="n">
+        <v>64.36494074730788</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5202741221.56682</v>
+        <v>3708948333.895586</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1855561748319806</v>
+        <v>0.1882106778691553</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02164669270349019</v>
+        <v>0.01783169940753027</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>242</v>
+      </c>
+      <c r="J82" t="n">
+        <v>337</v>
+      </c>
+      <c r="K82" t="n">
+        <v>66.7838460120746</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2013763040.339881</v>
+        <v>2206532431.844769</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1178296706699313</v>
+        <v>0.1524333179781145</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03175750796597108</v>
+        <v>0.03069324693018516</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1985265358.358012</v>
+        <v>2602357476.62476</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09299223986447844</v>
+        <v>0.09589606052573654</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05149087664611311</v>
+        <v>0.04317239566582588</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2597966279.006838</v>
+        <v>3151665261.499254</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1140045785204469</v>
+        <v>0.1594792649772835</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03648726263872726</v>
+        <v>0.03734221144482953</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1953426997.10054</v>
+        <v>2227807748.437595</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1702294870118597</v>
+        <v>0.1634041177391516</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01994663631187124</v>
+        <v>0.02104243658863814</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1254775117.720988</v>
+        <v>1100687255.545728</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1673400549936601</v>
+        <v>0.1396826196168579</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03312914444653484</v>
+        <v>0.02706576120005251</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2654607433.671781</v>
+        <v>3085222165.204794</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1622424926271953</v>
+        <v>0.1643790490586498</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03043348760607881</v>
+        <v>0.03007766628715538</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3020951465.037958</v>
+        <v>2838561069.516922</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1029194622393439</v>
+        <v>0.1211887174451134</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04084664229493259</v>
+        <v>0.03472956936530269</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1718130368.550565</v>
+        <v>1837508507.632709</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1268089835039923</v>
+        <v>0.1280624915286868</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04950034174576601</v>
+        <v>0.04265485801450591</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1771974697.558927</v>
+        <v>1376754938.172117</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1240743719611169</v>
+        <v>0.1306127862437685</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06109246406730705</v>
+        <v>0.05171436501236679</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2526973349.521326</v>
+        <v>2415232487.196662</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08130575366909612</v>
+        <v>0.06639410471039407</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0309833625448969</v>
+        <v>0.03948504386715515</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3422725899.417739</v>
+        <v>3507318367.465909</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1016705185801865</v>
+        <v>0.09655978715854818</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03457579586983387</v>
+        <v>0.03901205684189348</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>155</v>
+      </c>
+      <c r="J93" t="n">
+        <v>337</v>
+      </c>
+      <c r="K93" t="n">
+        <v>63.15419312839522</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2412802482.166045</v>
+        <v>2216024627.870834</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1679395858762902</v>
+        <v>0.1327958161897971</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03729350318112713</v>
+        <v>0.03959840961562709</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2503631493.985799</v>
+        <v>2979279353.054425</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1237113875864411</v>
+        <v>0.09639636682618448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03331141630596823</v>
+        <v>0.05303840930529824</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2314485439.875024</v>
+        <v>1647723391.273211</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1315191264215217</v>
+        <v>0.09476302072628184</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0426604611107597</v>
+        <v>0.03998552979272148</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5196781228.54095</v>
+        <v>4697216156.142236</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1533867045023888</v>
+        <v>0.1553794293702467</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02563143530180525</v>
+        <v>0.02872146895108491</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>174</v>
+      </c>
+      <c r="J97" t="n">
+        <v>337</v>
+      </c>
+      <c r="K97" t="n">
+        <v>69.17986294119032</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3117222558.933564</v>
+        <v>3948795864.92699</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09020832678001842</v>
+        <v>0.08630456068532709</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03020711829566268</v>
+        <v>0.02877913060457532</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>84</v>
+      </c>
+      <c r="J98" t="n">
+        <v>338</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3022502401.95156</v>
+        <v>2662830829.287009</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1342677637332634</v>
+        <v>0.09424252092751283</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03537011699731793</v>
+        <v>0.02793046102437113</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3970352265.800783</v>
+        <v>3222840618.46779</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1146116204232179</v>
+        <v>0.1440333174607198</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02377738773552423</v>
+        <v>0.01791612548600043</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>152</v>
+      </c>
+      <c r="J100" t="n">
+        <v>337</v>
+      </c>
+      <c r="K100" t="n">
+        <v>50.99532027739416</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2456186094.086223</v>
+        <v>3394985985.244754</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2168211941163537</v>
+        <v>0.1626618253120124</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04714787279027929</v>
+        <v>0.04570650321154923</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
